--- a/biology/Zoologie/Dinópolis/Dinópolis.xlsx
+++ b/biology/Zoologie/Dinópolis/Dinópolis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Din%C3%B3polis</t>
+          <t>Dinópolis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dinópolis est un parc à thème, culturel, scientifique et de loisirs, consacré à la paléontologie et au monde des dinosaures. Il est situé à Teruel, dans le sud de l'Aragon, en Espagne. 
-Il se compose d'un parc principal, Dinópolis, situé dans la capitale provinciale, et de sept autres centres d'interprétation répartis dans différentes localités, dans lesquelles des découvertes paléontologiques ont été faites[1]. 
-Depuis l'ouverture de son siège principal, entre le 1er juin 2001 et 2011, plus de 1 750 000 personnes l'ont visité d'après le rapport de la Fundación de Economía Aragonesa[2].
+Il se compose d'un parc principal, Dinópolis, situé dans la capitale provinciale, et de sept autres centres d'interprétation répartis dans différentes localités, dans lesquelles des découvertes paléontologiques ont été faites. 
+Depuis l'ouverture de son siège principal, entre le 1er juin 2001 et 2011, plus de 1 750 000 personnes l'ont visité d'après le rapport de la Fundación de Economía Aragonesa.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Din%C3%B3polis</t>
+          <t>Dinópolis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1998, le gouvernement provincial d'Aragon par l'intermédiaire de l'Institut Aragonaise de Développement a créé une fondation dans le but de mettre en valeur le patrimoine paléontologique découverts dans la région afin de développer le tourisme et l'économie locale. Jusqu'à présent, les investissements dans ce nouveau concept de parc culturel, scientifique et de loisirs ont dépassé 38 millions d'euros.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Din%C3%B3polis</t>
+          <t>Dinópolis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Le parc à thème Dinópolis</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lieu de découverte et de loisir, Dinópolis propose de nombreuses attractions :
 Un musée paléontologique, composé de 4 salles consacrées à l'histoire de la vie et principalement aux dinosaures.
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Din%C3%B3polis</t>
+          <t>Dinópolis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,10 +602,12 @@
           <t>Le territoire Dinópolis</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sept espaces de découvertes sont répartis dans différents villages de la région, au plus près des sites paléontologiques :
-Inhóspitak, a été inauguré en 2003 à Peñarroya de Tastavins. Ce centre est consacré à Tastavinsaurus, un sauropode du crétacé inférieur[3].
+Inhóspitak, a été inauguré en 2003 à Peñarroya de Tastavins. Ce centre est consacré à Tastavinsaurus, un sauropode du crétacé inférieur.
 Legendark a été inauguré en 2003 à Galve. Il permet de découvrir Aragosaurus ischiaticus, un autre sauropode du crétacé inférieur.
 Region Ambarinas a été inauguré en 2004 à Rubielos de Mora. Ce centre est dédié aux vestiges d'un Konservat-Lagerstätten, un lac fossilisé d'une conservation exceptionnelle datant du Miocène.
 Mars de las matasa a été inauguré en 2006 à Castellote. Il est consacré à la paléobotanique du Crétacé.
@@ -607,7 +625,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Din%C3%B3polis</t>
+          <t>Dinópolis</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -625,9 +643,11 @@
           <t>Activités de recherche</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dinópolis dispose d'une équipe de recherche active au sein de la Fundación Conjunto Paleontológico de Teruel-Dinópolis appelée aussi Fundación Dinópolis. Une des réalisations de cette équipe a été la description de Turiasaurus riodevensis[4] 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dinópolis dispose d'une équipe de recherche active au sein de la Fundación Conjunto Paleontológico de Teruel-Dinópolis appelée aussi Fundación Dinópolis. Une des réalisations de cette équipe a été la description de Turiasaurus riodevensis 
 </t>
         </is>
       </c>
